--- a/dataset/participation.xlsx
+++ b/dataset/participation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\tennis-matching\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\matching\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6852BC6-5F02-4018-88BD-EE6EE71A5731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541AB346-09B6-48C4-89D9-5434F9578829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,7 +469,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
